--- a/shopping bill.xlsx
+++ b/shopping bill.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\darylTshitenge\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\darylTshitenge\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08CFF178-A8B4-4B9E-86D1-16A725DBB92E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D46755E1-969F-4FC8-9303-1CDB3BE6FA39}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{556A854F-270A-4282-83B9-A6B85A9F5CFD}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" activeTab="1" xr2:uid="{556A854F-270A-4282-83B9-A6B85A9F5CFD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>R0.35</t>
   </si>
@@ -64,6 +65,96 @@
   </si>
   <si>
     <t>Shopping Bill</t>
+  </si>
+  <si>
+    <t>My Chocolate Addiction</t>
+  </si>
+  <si>
+    <t>twix</t>
+  </si>
+  <si>
+    <t>Bounty</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>Day Totals</t>
+  </si>
+  <si>
+    <t>Individual Totals</t>
+  </si>
+  <si>
+    <t>Number of Chocolate bars consumed in a week</t>
+  </si>
+  <si>
+    <t>Coxt of Addiction</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t>0.29</t>
+  </si>
+  <si>
+    <t>0.32</t>
+  </si>
+  <si>
+    <t>0.40</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>₤5.95</t>
+  </si>
+  <si>
+    <t>₤7.83</t>
+  </si>
+  <si>
+    <t>₤8.00</t>
+  </si>
+  <si>
+    <t>₤4.40</t>
+  </si>
+  <si>
+    <t>Weekly Cost of Choicalate Addiction</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Annual Cost of Chocolate Addiction</t>
+  </si>
+  <si>
+    <t>₤26.18</t>
+  </si>
+  <si>
+    <t>₤1,361.36</t>
   </si>
 </sst>
 </file>
@@ -73,13 +164,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -126,12 +223,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -144,8 +238,25 @@
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -463,7 +574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{301CC99C-441E-40B0-AFC1-5F4E963D56D3}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5:D5"/>
     </sheetView>
   </sheetViews>
@@ -484,20 +595,20 @@
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
         <v>4</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E4">
@@ -506,50 +617,50 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>10</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>4</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="4"/>
+      <c r="D6" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>12</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6" t="s">
+      <c r="C7" s="4"/>
+      <c r="D7" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>4</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6" t="s">
+      <c r="C8" s="4"/>
+      <c r="D8" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -566,4 +677,321 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F794DA11-7D76-4AD8-ACF6-4E17822FA2DB}">
+  <dimension ref="A1:L22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="9"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8">
+        <v>2</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8">
+        <v>3</v>
+      </c>
+      <c r="G5" s="8">
+        <v>3</v>
+      </c>
+      <c r="H5" s="8">
+        <v>2</v>
+      </c>
+      <c r="I5" s="8">
+        <v>5</v>
+      </c>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="8">
+        <v>7</v>
+      </c>
+      <c r="D6" s="8">
+        <v>5</v>
+      </c>
+      <c r="E6" s="8">
+        <v>3</v>
+      </c>
+      <c r="F6" s="8">
+        <v>2</v>
+      </c>
+      <c r="G6" s="8">
+        <v>4</v>
+      </c>
+      <c r="H6" s="8">
+        <v>2</v>
+      </c>
+      <c r="I6" s="8">
+        <v>4</v>
+      </c>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="8">
+        <v>8</v>
+      </c>
+      <c r="D7" s="8">
+        <v>3</v>
+      </c>
+      <c r="E7" s="8">
+        <v>2</v>
+      </c>
+      <c r="F7" s="8">
+        <v>3</v>
+      </c>
+      <c r="G7" s="8">
+        <v>4</v>
+      </c>
+      <c r="H7" s="8">
+        <v>1</v>
+      </c>
+      <c r="I7" s="8">
+        <v>4</v>
+      </c>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8">
+        <v>2</v>
+      </c>
+      <c r="E8" s="8">
+        <v>2</v>
+      </c>
+      <c r="F8" s="8">
+        <v>2</v>
+      </c>
+      <c r="G8" s="8">
+        <v>2</v>
+      </c>
+      <c r="H8" s="8">
+        <v>1</v>
+      </c>
+      <c r="I8" s="8">
+        <v>1</v>
+      </c>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="8">
+        <f>SUM(C5:C9)</f>
+        <v>17</v>
+      </c>
+      <c r="D10" s="8">
+        <f>SUM(D5:D9)</f>
+        <v>12</v>
+      </c>
+      <c r="E10" s="8">
+        <f>SUM(E5:E9)</f>
+        <v>8</v>
+      </c>
+      <c r="F10" s="8">
+        <f>SUM(F5:F9)</f>
+        <v>10</v>
+      </c>
+      <c r="G10" s="8">
+        <f>SUM(G5:G9)</f>
+        <v>13</v>
+      </c>
+      <c r="H10" s="8">
+        <f>SUM(H5:H9)</f>
+        <v>6</v>
+      </c>
+      <c r="I10" s="8">
+        <f>SUM(I5:I9)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="7"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C15" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C16" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16">
+        <v>17</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C17" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17">
+        <v>27</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C18" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18">
+        <v>25</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C19" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19">
+        <v>11</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="F21" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="F22" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A9:B9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>